--- a/tesis_doctorado/datav2023/distinct_cat_subtipoorg.xlsx
+++ b/tesis_doctorado/datav2023/distinct_cat_subtipoorg.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="78">
   <si>
     <t xml:space="preserve">ncat_subtipov2</t>
   </si>
@@ -217,9 +217,6 @@
     <t xml:space="preserve">asoc_sindical</t>
   </si>
   <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
     <t xml:space="preserve">radio_universitario</t>
   </si>
   <si>
@@ -251,6 +248,12 @@
   </si>
   <si>
     <t xml:space="preserve">tv_subnacional_privada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">educ_internacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grafico_universitario</t>
   </si>
 </sst>
 </file>
@@ -334,13 +337,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -360,16 +371,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44:E44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E55" activeCellId="0" sqref="A54:E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.45"/>
   </cols>
   <sheetData>
@@ -1105,17 +1116,20 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>65</v>
+      </c>
       <c r="B44" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>65</v>
+        <v>21</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1123,16 +1137,16 @@
         <v>66</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1157,33 +1171,33 @@
         <v>68</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>21</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1191,16 +1205,16 @@
         <v>71</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1208,16 +1222,16 @@
         <v>72</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1225,16 +1239,16 @@
         <v>73</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1242,16 +1256,16 @@
         <v>74</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1259,52 +1273,54 @@
         <v>75</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>22</v>
+      <c r="B54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
+      <c r="A55" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
